--- a/song7.xlsx
+++ b/song7.xlsx
@@ -789,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V1180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="122" workbookViewId="0">
-      <selection activeCell="O164" sqref="O164"/>
+    <sheetView tabSelected="1" topLeftCell="A327" zoomScale="122" workbookViewId="0">
+      <selection activeCell="L340" sqref="L340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10393,10 +10393,10 @@
       <c r="N163" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O163" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P163" s="2" t="s">
+      <c r="O163" t="s">
+        <v>18</v>
+      </c>
+      <c r="P163" t="s">
         <v>18</v>
       </c>
       <c r="Q163" t="s">
@@ -10450,12 +10450,12 @@
         <v>22</v>
       </c>
       <c r="N164" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O164" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P164" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O164" t="s">
+        <v>18</v>
+      </c>
+      <c r="P164" t="s">
         <v>18</v>
       </c>
       <c r="Q164" t="s">
@@ -10509,12 +10509,12 @@
         <v>22</v>
       </c>
       <c r="N165" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O165" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P165" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O165" t="s">
+        <v>18</v>
+      </c>
+      <c r="P165" t="s">
         <v>18</v>
       </c>
       <c r="Q165" t="s">
@@ -10568,13 +10568,13 @@
         <v>22</v>
       </c>
       <c r="N166" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O166" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P166" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q166" t="s">
         <v>25</v>
@@ -10627,13 +10627,13 @@
         <v>22</v>
       </c>
       <c r="N167" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O167" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P167" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q167" t="s">
         <v>25</v>
@@ -10686,13 +10686,13 @@
         <v>22</v>
       </c>
       <c r="N168" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O168" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P168" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q168" t="s">
         <v>25</v>
@@ -10747,11 +10747,11 @@
       <c r="N169" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O169" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P169" s="2" t="s">
-        <v>23</v>
+      <c r="O169" t="s">
+        <v>18</v>
+      </c>
+      <c r="P169" t="s">
+        <v>18</v>
       </c>
       <c r="Q169" t="s">
         <v>25</v>
@@ -10804,12 +10804,12 @@
         <v>25</v>
       </c>
       <c r="N170" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O170" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P170" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P170" t="s">
         <v>18</v>
       </c>
       <c r="Q170" t="s">
@@ -10862,13 +10862,13 @@
       <c r="M171" t="s">
         <v>25</v>
       </c>
-      <c r="N171" s="2" t="s">
-        <v>23</v>
+      <c r="N171" t="s">
+        <v>18</v>
       </c>
       <c r="O171" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P171" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P171" t="s">
         <v>18</v>
       </c>
       <c r="Q171" t="s">
@@ -10921,8 +10921,8 @@
       <c r="M172" t="s">
         <v>25</v>
       </c>
-      <c r="N172" s="2" t="s">
-        <v>23</v>
+      <c r="N172" t="s">
+        <v>18</v>
       </c>
       <c r="O172" s="2" t="s">
         <v>23</v>
@@ -11105,7 +11105,7 @@
         <v>23</v>
       </c>
       <c r="P175" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q175" t="s">
         <v>20</v>
@@ -11161,10 +11161,10 @@
         <v>18</v>
       </c>
       <c r="O176" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P176" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q176" t="s">
         <v>20</v>
@@ -11220,10 +11220,10 @@
         <v>18</v>
       </c>
       <c r="O177" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P177" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q177" t="s">
         <v>20</v>
@@ -11276,13 +11276,13 @@
         <v>25</v>
       </c>
       <c r="N178" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O178" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P178" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q178" t="s">
         <v>20</v>
@@ -11332,10 +11332,10 @@
         <v>25</v>
       </c>
       <c r="N179" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O179" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P179" s="2" t="s">
         <v>18</v>
@@ -11388,13 +11388,13 @@
         <v>20</v>
       </c>
       <c r="N180" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O180" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P180" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q180" t="s">
         <v>19</v>
@@ -11444,13 +11444,13 @@
         <v>20</v>
       </c>
       <c r="N181" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O181" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P181" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q181" t="s">
         <v>19</v>
@@ -11503,10 +11503,10 @@
         <v>18</v>
       </c>
       <c r="O182" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P182" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q182" t="s">
         <v>19</v>
@@ -11559,10 +11559,10 @@
         <v>18</v>
       </c>
       <c r="O183" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P183" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q183" t="s">
         <v>19</v>
@@ -11615,7 +11615,7 @@
         <v>18</v>
       </c>
       <c r="O184" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P184" s="2" t="s">
         <v>23</v>
@@ -11780,7 +11780,7 @@
         <v>20</v>
       </c>
       <c r="N187" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O187" s="2" t="s">
         <v>18</v>
@@ -11836,13 +11836,13 @@
         <v>20</v>
       </c>
       <c r="N188" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O188" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P188" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q188" t="s">
         <v>19</v>
@@ -11892,13 +11892,13 @@
         <v>20</v>
       </c>
       <c r="N189" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O189" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P189" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q189" t="s">
         <v>19</v>
@@ -11951,7 +11951,7 @@
         <v>23</v>
       </c>
       <c r="O190" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P190" s="2" t="s">
         <v>18</v>
@@ -12004,10 +12004,10 @@
         <v>19</v>
       </c>
       <c r="N191" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O191" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P191" s="2" t="s">
         <v>18</v>
@@ -12060,10 +12060,10 @@
         <v>19</v>
       </c>
       <c r="N192" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O192" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P192" s="2" t="s">
         <v>18</v>
@@ -12116,13 +12116,13 @@
         <v>19</v>
       </c>
       <c r="N193" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O193" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P193" s="2" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="O193" t="s">
+        <v>18</v>
+      </c>
+      <c r="P193" t="s">
+        <v>18</v>
       </c>
       <c r="Q193" t="s">
         <v>26</v>
@@ -12172,13 +12172,13 @@
         <v>19</v>
       </c>
       <c r="N194" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O194" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P194" s="2" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="O194" t="s">
+        <v>18</v>
+      </c>
+      <c r="P194" t="s">
+        <v>18</v>
       </c>
       <c r="Q194" t="s">
         <v>26</v>
@@ -12228,13 +12228,13 @@
         <v>19</v>
       </c>
       <c r="N195" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O195" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P195" s="2" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="O195" t="s">
+        <v>18</v>
+      </c>
+      <c r="P195" t="s">
+        <v>18</v>
       </c>
       <c r="Q195" t="s">
         <v>26</v>
@@ -12290,7 +12290,7 @@
         <v>18</v>
       </c>
       <c r="P196" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q196" t="s">
         <v>26</v>
@@ -12454,10 +12454,10 @@
       <c r="N199" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O199" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P199" s="2" t="s">
+      <c r="O199" t="s">
+        <v>18</v>
+      </c>
+      <c r="P199" t="s">
         <v>18</v>
       </c>
       <c r="Q199" t="s">
@@ -12513,7 +12513,7 @@
       <c r="O200" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P200" s="2" t="s">
+      <c r="P200" t="s">
         <v>18</v>
       </c>
       <c r="Q200" t="s">
@@ -12563,13 +12563,13 @@
       <c r="M201" t="s">
         <v>26</v>
       </c>
-      <c r="N201" s="2" t="s">
+      <c r="N201" t="s">
         <v>18</v>
       </c>
       <c r="O201" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P201" s="2" t="s">
+      <c r="P201" t="s">
         <v>18</v>
       </c>
       <c r="Q201" t="s">
@@ -12619,14 +12619,14 @@
       <c r="M202" t="s">
         <v>26</v>
       </c>
-      <c r="N202" s="2" t="s">
+      <c r="N202" t="s">
         <v>18</v>
       </c>
       <c r="O202" s="2" t="s">
         <v>23</v>
       </c>
       <c r="P202" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q202" t="s">
         <v>22</v>
@@ -12679,10 +12679,10 @@
         <v>18</v>
       </c>
       <c r="O203" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P203" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q203" t="s">
         <v>22</v>
@@ -12735,10 +12735,10 @@
         <v>18</v>
       </c>
       <c r="O204" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P204" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q204" t="s">
         <v>22</v>
@@ -12788,13 +12788,13 @@
         <v>26</v>
       </c>
       <c r="N205" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O205" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P205" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q205" t="s">
         <v>22</v>
@@ -12844,10 +12844,10 @@
         <v>26</v>
       </c>
       <c r="N206" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O206" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P206" s="2" t="s">
         <v>18</v>
@@ -12900,10 +12900,10 @@
         <v>26</v>
       </c>
       <c r="N207" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O207" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P207" s="2" t="s">
         <v>18</v>
@@ -12956,7 +12956,7 @@
         <v>26</v>
       </c>
       <c r="N208" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O208" s="2" t="s">
         <v>23</v>
@@ -13071,10 +13071,10 @@
         <v>18</v>
       </c>
       <c r="O210" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P210" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q210" t="s">
         <v>25</v>
@@ -13127,7 +13127,7 @@
         <v>18</v>
       </c>
       <c r="O211" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P211" s="2" t="s">
         <v>23</v>
@@ -13348,13 +13348,13 @@
         <v>22</v>
       </c>
       <c r="N215" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O215" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P215" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q215" t="s">
         <v>25</v>
@@ -13404,13 +13404,13 @@
         <v>22</v>
       </c>
       <c r="N216" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O216" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P216" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q216" t="s">
         <v>25</v>
@@ -13463,10 +13463,10 @@
         <v>18</v>
       </c>
       <c r="O217" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P217" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q217" t="s">
         <v>25</v>
@@ -13519,10 +13519,10 @@
         <v>18</v>
       </c>
       <c r="O218" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P218" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q218" t="s">
         <v>25</v>
@@ -13575,7 +13575,7 @@
         <v>18</v>
       </c>
       <c r="O219" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P219" s="2" t="s">
         <v>23</v>
@@ -13628,13 +13628,13 @@
         <v>25</v>
       </c>
       <c r="N220" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O220" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P220" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q220" t="s">
         <v>20</v>
@@ -13684,13 +13684,13 @@
         <v>25</v>
       </c>
       <c r="N221" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O221" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P221" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q221" t="s">
         <v>20</v>
@@ -13746,7 +13746,7 @@
         <v>18</v>
       </c>
       <c r="P222" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q222" t="s">
         <v>20</v>
@@ -13798,10 +13798,10 @@
       <c r="N223" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O223" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P223" s="2" t="s">
+      <c r="O223" t="s">
+        <v>18</v>
+      </c>
+      <c r="P223" t="s">
         <v>18</v>
       </c>
       <c r="Q223" t="s">
@@ -13854,10 +13854,10 @@
       <c r="N224" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O224" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P224" s="2" t="s">
+      <c r="O224" t="s">
+        <v>18</v>
+      </c>
+      <c r="P224" t="s">
         <v>18</v>
       </c>
       <c r="Q224" t="s">
@@ -13910,10 +13910,10 @@
       <c r="N225" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O225" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P225" s="2" t="s">
+      <c r="O225" t="s">
+        <v>18</v>
+      </c>
+      <c r="P225" t="s">
         <v>18</v>
       </c>
       <c r="Q225" t="s">
@@ -13964,10 +13964,10 @@
         <v>25</v>
       </c>
       <c r="N226" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O226" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P226" s="2" t="s">
         <v>18</v>
@@ -14020,10 +14020,10 @@
         <v>25</v>
       </c>
       <c r="N227" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O227" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P227" s="2" t="s">
         <v>18</v>
@@ -14076,13 +14076,13 @@
         <v>25</v>
       </c>
       <c r="N228" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O228" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P228" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q228" t="s">
         <v>20</v>
@@ -14132,13 +14132,13 @@
         <v>25</v>
       </c>
       <c r="N229" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O229" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P229" s="2" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="O229" t="s">
+        <v>18</v>
+      </c>
+      <c r="P229" t="s">
+        <v>18</v>
       </c>
       <c r="Q229" t="s">
         <v>20</v>
@@ -14191,10 +14191,10 @@
         <v>18</v>
       </c>
       <c r="O230" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P230" s="2" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="P230" t="s">
+        <v>18</v>
       </c>
       <c r="Q230" t="s">
         <v>19</v>
@@ -14243,14 +14243,14 @@
       <c r="M231" t="s">
         <v>20</v>
       </c>
-      <c r="N231" s="2" t="s">
-        <v>23</v>
+      <c r="N231" t="s">
+        <v>18</v>
       </c>
       <c r="O231" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P231" s="2" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="P231" t="s">
+        <v>18</v>
       </c>
       <c r="Q231" t="s">
         <v>19</v>
@@ -14299,11 +14299,11 @@
       <c r="M232" t="s">
         <v>20</v>
       </c>
-      <c r="N232" s="2" t="s">
-        <v>23</v>
+      <c r="N232" t="s">
+        <v>18</v>
       </c>
       <c r="O232" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P232" s="2" t="s">
         <v>18</v>
@@ -14356,10 +14356,10 @@
         <v>20</v>
       </c>
       <c r="N233" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O233" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P233" s="2" t="s">
         <v>18</v>
@@ -14412,7 +14412,7 @@
         <v>20</v>
       </c>
       <c r="N234" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O234" s="2" t="s">
         <v>23</v>
@@ -14586,7 +14586,7 @@
         <v>23</v>
       </c>
       <c r="P237" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q237" t="s">
         <v>19</v>
@@ -14639,10 +14639,10 @@
         <v>18</v>
       </c>
       <c r="O238" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P238" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q238" t="s">
         <v>19</v>
@@ -14695,10 +14695,10 @@
         <v>18</v>
       </c>
       <c r="O239" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P239" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q239" t="s">
         <v>19</v>
@@ -14748,7 +14748,7 @@
         <v>19</v>
       </c>
       <c r="N240" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O240" s="2" t="s">
         <v>18</v>
@@ -14804,13 +14804,13 @@
         <v>19</v>
       </c>
       <c r="N241" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O241" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P241" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q241" t="s">
         <v>26</v>
@@ -14860,13 +14860,13 @@
         <v>19</v>
       </c>
       <c r="N242" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O242" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P242" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q242" t="s">
         <v>26</v>
@@ -14916,13 +14916,13 @@
         <v>19</v>
       </c>
       <c r="N243" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O243" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P243" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q243" t="s">
         <v>26</v>
@@ -14975,10 +14975,10 @@
         <v>18</v>
       </c>
       <c r="O244" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P244" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q244" t="s">
         <v>26</v>
@@ -15031,10 +15031,10 @@
         <v>18</v>
       </c>
       <c r="O245" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P245" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q245" t="s">
         <v>26</v>
@@ -15087,7 +15087,7 @@
         <v>18</v>
       </c>
       <c r="O246" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P246" s="2" t="s">
         <v>23</v>
@@ -15252,7 +15252,7 @@
         <v>19</v>
       </c>
       <c r="N249" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O249" s="2" t="s">
         <v>18</v>
@@ -15423,7 +15423,7 @@
         <v>23</v>
       </c>
       <c r="O252" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P252" s="2" t="s">
         <v>18</v>
@@ -15476,12 +15476,12 @@
         <v>26</v>
       </c>
       <c r="N253" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O253" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P253" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O253" t="s">
+        <v>18</v>
+      </c>
+      <c r="P253" t="s">
         <v>18</v>
       </c>
       <c r="Q253" t="s">
@@ -15532,12 +15532,12 @@
         <v>26</v>
       </c>
       <c r="N254" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O254" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P254" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O254" t="s">
+        <v>18</v>
+      </c>
+      <c r="P254" t="s">
         <v>18</v>
       </c>
       <c r="Q254" t="s">
@@ -15591,13 +15591,13 @@
         <v>26</v>
       </c>
       <c r="N255" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O255" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P255" s="2" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="O255" t="s">
+        <v>18</v>
+      </c>
+      <c r="P255" t="s">
+        <v>18</v>
       </c>
       <c r="Q255" t="s">
         <v>22</v>
@@ -15650,13 +15650,13 @@
         <v>26</v>
       </c>
       <c r="N256" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O256" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P256" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q256" t="s">
         <v>22</v>
@@ -15709,13 +15709,13 @@
         <v>26</v>
       </c>
       <c r="N257" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O257" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P257" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q257" t="s">
         <v>22</v>
@@ -15774,7 +15774,7 @@
         <v>18</v>
       </c>
       <c r="P258" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q258" t="s">
         <v>22</v>
@@ -15829,10 +15829,10 @@
       <c r="N259" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O259" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P259" s="2" t="s">
+      <c r="O259" t="s">
+        <v>18</v>
+      </c>
+      <c r="P259" t="s">
         <v>18</v>
       </c>
       <c r="Q259" t="s">
@@ -15886,12 +15886,12 @@
         <v>22</v>
       </c>
       <c r="N260" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O260" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P260" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P260" t="s">
         <v>18</v>
       </c>
       <c r="Q260" t="s">
@@ -15944,13 +15944,13 @@
       <c r="M261" t="s">
         <v>22</v>
       </c>
-      <c r="N261" s="2" t="s">
-        <v>23</v>
+      <c r="N261" t="s">
+        <v>18</v>
       </c>
       <c r="O261" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P261" s="2" t="s">
+      <c r="P261" t="s">
         <v>18</v>
       </c>
       <c r="Q261" t="s">
@@ -16003,7 +16003,7 @@
       <c r="M262" t="s">
         <v>22</v>
       </c>
-      <c r="N262" s="2" t="s">
+      <c r="N262" t="s">
         <v>18</v>
       </c>
       <c r="O262" s="2" t="s">
@@ -16128,7 +16128,7 @@
         <v>23</v>
       </c>
       <c r="P264" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q264" t="s">
         <v>25</v>
@@ -16184,10 +16184,10 @@
         <v>18</v>
       </c>
       <c r="O265" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P265" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q265" t="s">
         <v>25</v>
@@ -16243,10 +16243,10 @@
         <v>18</v>
       </c>
       <c r="O266" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P266" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q266" t="s">
         <v>25</v>
@@ -16299,13 +16299,13 @@
         <v>22</v>
       </c>
       <c r="N267" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O267" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P267" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q267" t="s">
         <v>25</v>
@@ -16358,10 +16358,10 @@
         <v>22</v>
       </c>
       <c r="N268" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O268" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P268" s="2" t="s">
         <v>18</v>
@@ -16417,10 +16417,10 @@
         <v>22</v>
       </c>
       <c r="N269" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O269" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P269" s="2" t="s">
         <v>18</v>
@@ -16476,13 +16476,13 @@
         <v>25</v>
       </c>
       <c r="N270" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O270" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P270" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q270" t="s">
         <v>20</v>
@@ -16538,10 +16538,10 @@
         <v>18</v>
       </c>
       <c r="O271" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P271" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q271" t="s">
         <v>20</v>
@@ -16597,10 +16597,10 @@
         <v>18</v>
       </c>
       <c r="O272" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P272" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q272" t="s">
         <v>20</v>
@@ -16656,7 +16656,7 @@
         <v>18</v>
       </c>
       <c r="O273" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P273" s="2" t="s">
         <v>23</v>
@@ -16830,7 +16830,7 @@
         <v>25</v>
       </c>
       <c r="N276" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O276" s="2" t="s">
         <v>18</v>
@@ -16886,13 +16886,13 @@
         <v>25</v>
       </c>
       <c r="N277" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O277" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P277" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q277" t="s">
         <v>20</v>
@@ -16942,13 +16942,13 @@
         <v>25</v>
       </c>
       <c r="N278" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O278" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P278" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q278" t="s">
         <v>20</v>
@@ -16998,13 +16998,13 @@
         <v>25</v>
       </c>
       <c r="N279" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O279" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P279" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q279" t="s">
         <v>20</v>
@@ -17054,10 +17054,10 @@
         <v>20</v>
       </c>
       <c r="N280" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O280" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P280" s="2" t="s">
         <v>18</v>
@@ -17110,10 +17110,10 @@
         <v>20</v>
       </c>
       <c r="N281" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O281" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P281" s="2" t="s">
         <v>18</v>
@@ -17166,13 +17166,13 @@
         <v>20</v>
       </c>
       <c r="N282" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O282" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P282" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q282" t="s">
         <v>19</v>
@@ -17222,13 +17222,13 @@
         <v>20</v>
       </c>
       <c r="N283" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O283" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P283" s="2" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="O283" t="s">
+        <v>18</v>
+      </c>
+      <c r="P283" t="s">
+        <v>18</v>
       </c>
       <c r="Q283" t="s">
         <v>19</v>
@@ -17278,13 +17278,13 @@
         <v>20</v>
       </c>
       <c r="N284" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O284" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P284" s="2" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="O284" t="s">
+        <v>18</v>
+      </c>
+      <c r="P284" t="s">
+        <v>18</v>
       </c>
       <c r="Q284" t="s">
         <v>19</v>
@@ -17336,11 +17336,11 @@
       <c r="N285" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O285" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P285" s="2" t="s">
-        <v>23</v>
+      <c r="O285" t="s">
+        <v>18</v>
+      </c>
+      <c r="P285" t="s">
+        <v>18</v>
       </c>
       <c r="Q285" t="s">
         <v>19</v>
@@ -17505,7 +17505,7 @@
         <v>23</v>
       </c>
       <c r="O288" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P288" s="2" t="s">
         <v>18</v>
@@ -17558,12 +17558,12 @@
         <v>20</v>
       </c>
       <c r="N289" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O289" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P289" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O289" t="s">
+        <v>18</v>
+      </c>
+      <c r="P289" t="s">
         <v>18</v>
       </c>
       <c r="Q289" t="s">
@@ -17619,7 +17619,7 @@
       <c r="O290" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P290" s="2" t="s">
+      <c r="P290" t="s">
         <v>18</v>
       </c>
       <c r="Q290" t="s">
@@ -17669,14 +17669,14 @@
       <c r="M291" t="s">
         <v>19</v>
       </c>
-      <c r="N291" s="2" t="s">
+      <c r="N291" t="s">
         <v>18</v>
       </c>
       <c r="O291" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P291" s="2" t="s">
-        <v>23</v>
+      <c r="P291" t="s">
+        <v>18</v>
       </c>
       <c r="Q291" t="s">
         <v>26</v>
@@ -17728,14 +17728,14 @@
       <c r="M292" t="s">
         <v>19</v>
       </c>
-      <c r="N292" s="2" t="s">
+      <c r="N292" t="s">
         <v>18</v>
       </c>
       <c r="O292" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P292" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q292" t="s">
         <v>26</v>
@@ -17791,10 +17791,10 @@
         <v>18</v>
       </c>
       <c r="O293" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P293" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q293" t="s">
         <v>26</v>
@@ -17847,13 +17847,13 @@
         <v>19</v>
       </c>
       <c r="N294" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O294" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P294" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q294" t="s">
         <v>26</v>
@@ -17906,10 +17906,10 @@
         <v>19</v>
       </c>
       <c r="N295" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O295" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P295" s="2" t="s">
         <v>18</v>
@@ -17965,10 +17965,10 @@
         <v>19</v>
       </c>
       <c r="N296" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O296" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P296" s="2" t="s">
         <v>18</v>
@@ -18024,7 +18024,7 @@
         <v>19</v>
       </c>
       <c r="N297" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O297" s="2" t="s">
         <v>23</v>
@@ -18204,7 +18204,7 @@
         <v>18</v>
       </c>
       <c r="O300" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P300" s="2" t="s">
         <v>23</v>
@@ -18378,7 +18378,7 @@
         <v>26</v>
       </c>
       <c r="N303" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O303" s="2" t="s">
         <v>18</v>
@@ -18437,13 +18437,13 @@
         <v>26</v>
       </c>
       <c r="N304" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O304" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P304" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q304" t="s">
         <v>22</v>
@@ -18496,13 +18496,13 @@
         <v>26</v>
       </c>
       <c r="N305" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O305" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P305" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q305" t="s">
         <v>22</v>
@@ -18555,13 +18555,13 @@
         <v>26</v>
       </c>
       <c r="N306" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O306" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P306" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q306" t="s">
         <v>22</v>
@@ -18617,10 +18617,10 @@
         <v>18</v>
       </c>
       <c r="O307" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P307" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q307" t="s">
         <v>22</v>
@@ -18676,10 +18676,10 @@
         <v>18</v>
       </c>
       <c r="O308" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P308" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q308" t="s">
         <v>22</v>
@@ -18735,7 +18735,7 @@
         <v>18</v>
       </c>
       <c r="O309" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P309" s="2" t="s">
         <v>23</v>
@@ -18791,13 +18791,13 @@
         <v>22</v>
       </c>
       <c r="N310" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O310" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P310" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q310" t="s">
         <v>25</v>
@@ -18847,13 +18847,13 @@
         <v>22</v>
       </c>
       <c r="N311" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O311" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P311" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q311" t="s">
         <v>25</v>
@@ -18909,7 +18909,7 @@
         <v>18</v>
       </c>
       <c r="P312" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q312" t="s">
         <v>25</v>
@@ -18961,10 +18961,10 @@
       <c r="N313" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O313" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P313" s="2" t="s">
+      <c r="O313" t="s">
+        <v>18</v>
+      </c>
+      <c r="P313" t="s">
         <v>18</v>
       </c>
       <c r="Q313" t="s">
@@ -19017,10 +19017,10 @@
       <c r="N314" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O314" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P314" s="2" t="s">
+      <c r="O314" t="s">
+        <v>18</v>
+      </c>
+      <c r="P314" t="s">
         <v>18</v>
       </c>
       <c r="Q314" t="s">
@@ -19073,10 +19073,10 @@
       <c r="N315" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O315" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P315" s="2" t="s">
+      <c r="O315" t="s">
+        <v>18</v>
+      </c>
+      <c r="P315" t="s">
         <v>18</v>
       </c>
       <c r="Q315" t="s">
@@ -19127,10 +19127,10 @@
         <v>22</v>
       </c>
       <c r="N316" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O316" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P316" s="2" t="s">
         <v>18</v>
@@ -19183,10 +19183,10 @@
         <v>22</v>
       </c>
       <c r="N317" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O317" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P317" s="2" t="s">
         <v>18</v>
@@ -19239,13 +19239,13 @@
         <v>22</v>
       </c>
       <c r="N318" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O318" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P318" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q318" t="s">
         <v>25</v>
@@ -19295,13 +19295,13 @@
         <v>22</v>
       </c>
       <c r="N319" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O319" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P319" s="2" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="O319" t="s">
+        <v>18</v>
+      </c>
+      <c r="P319" t="s">
+        <v>18</v>
       </c>
       <c r="Q319" t="s">
         <v>25</v>
@@ -19354,10 +19354,10 @@
         <v>18</v>
       </c>
       <c r="O320" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P320" s="2" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="P320" t="s">
+        <v>18</v>
       </c>
       <c r="Q320" t="s">
         <v>20</v>
@@ -19406,14 +19406,14 @@
       <c r="M321" t="s">
         <v>25</v>
       </c>
-      <c r="N321" s="2" t="s">
-        <v>23</v>
+      <c r="N321" t="s">
+        <v>18</v>
       </c>
       <c r="O321" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P321" s="2" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="P321" t="s">
+        <v>18</v>
       </c>
       <c r="Q321" t="s">
         <v>20</v>
@@ -19462,11 +19462,11 @@
       <c r="M322" t="s">
         <v>25</v>
       </c>
-      <c r="N322" s="2" t="s">
-        <v>23</v>
+      <c r="N322" t="s">
+        <v>18</v>
       </c>
       <c r="O322" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P322" s="2" t="s">
         <v>18</v>
@@ -19519,10 +19519,10 @@
         <v>25</v>
       </c>
       <c r="N323" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O323" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P323" s="2" t="s">
         <v>18</v>
@@ -19575,7 +19575,7 @@
         <v>25</v>
       </c>
       <c r="N324" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O324" s="2" t="s">
         <v>23</v>
@@ -19749,7 +19749,7 @@
         <v>23</v>
       </c>
       <c r="P327" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q327" t="s">
         <v>20</v>
@@ -19802,10 +19802,10 @@
         <v>18</v>
       </c>
       <c r="O328" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P328" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q328" t="s">
         <v>20</v>
@@ -19858,10 +19858,10 @@
         <v>18</v>
       </c>
       <c r="O329" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P329" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q329" t="s">
         <v>20</v>
@@ -19911,7 +19911,7 @@
         <v>20</v>
       </c>
       <c r="N330" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O330" s="2" t="s">
         <v>18</v>
@@ -19967,13 +19967,13 @@
         <v>20</v>
       </c>
       <c r="N331" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O331" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P331" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q331" t="s">
         <v>19</v>
@@ -20023,13 +20023,13 @@
         <v>20</v>
       </c>
       <c r="N332" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O332" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P332" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q332" t="s">
         <v>19</v>
@@ -20079,13 +20079,13 @@
         <v>20</v>
       </c>
       <c r="N333" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O333" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P333" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q333" t="s">
         <v>19</v>
@@ -20138,10 +20138,10 @@
         <v>18</v>
       </c>
       <c r="O334" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P334" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q334" t="s">
         <v>19</v>
@@ -20194,10 +20194,10 @@
         <v>18</v>
       </c>
       <c r="O335" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P335" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q335" t="s">
         <v>19</v>
@@ -20250,7 +20250,7 @@
         <v>18</v>
       </c>
       <c r="O336" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P336" s="2" t="s">
         <v>23</v>
@@ -20415,7 +20415,7 @@
         <v>20</v>
       </c>
       <c r="N339" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O339" s="2" t="s">
         <v>18</v>
@@ -20586,7 +20586,7 @@
         <v>23</v>
       </c>
       <c r="O342" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P342" s="2" t="s">
         <v>18</v>
@@ -20639,12 +20639,12 @@
         <v>19</v>
       </c>
       <c r="N343" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O343" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P343" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O343" t="s">
+        <v>18</v>
+      </c>
+      <c r="P343" t="s">
         <v>18</v>
       </c>
       <c r="Q343" t="s">
@@ -20695,12 +20695,12 @@
         <v>19</v>
       </c>
       <c r="N344" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O344" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P344" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O344" t="s">
+        <v>18</v>
+      </c>
+      <c r="P344" t="s">
         <v>18</v>
       </c>
       <c r="Q344" t="s">
@@ -20751,13 +20751,13 @@
         <v>19</v>
       </c>
       <c r="N345" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O345" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P345" s="2" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="O345" t="s">
+        <v>18</v>
+      </c>
+      <c r="P345" t="s">
+        <v>18</v>
       </c>
       <c r="Q345" t="s">
         <v>26</v>
@@ -20807,13 +20807,13 @@
         <v>19</v>
       </c>
       <c r="N346" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O346" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P346" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q346" t="s">
         <v>26</v>
@@ -20863,13 +20863,13 @@
         <v>19</v>
       </c>
       <c r="N347" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O347" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P347" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q347" t="s">
         <v>26</v>
@@ -20925,7 +20925,7 @@
         <v>18</v>
       </c>
       <c r="P348" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q348" t="s">
         <v>26</v>
@@ -20977,10 +20977,10 @@
       <c r="N349" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O349" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P349" s="2" t="s">
+      <c r="O349" t="s">
+        <v>18</v>
+      </c>
+      <c r="P349" t="s">
         <v>18</v>
       </c>
       <c r="Q349" t="s">
@@ -21031,12 +21031,12 @@
         <v>26</v>
       </c>
       <c r="N350" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O350" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P350" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P350" t="s">
         <v>18</v>
       </c>
       <c r="Q350" t="s">
@@ -21086,13 +21086,13 @@
       <c r="M351" t="s">
         <v>26</v>
       </c>
-      <c r="N351" s="2" t="s">
-        <v>23</v>
+      <c r="N351" t="s">
+        <v>18</v>
       </c>
       <c r="O351" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P351" s="2" t="s">
+      <c r="P351" t="s">
         <v>18</v>
       </c>
       <c r="Q351" t="s">
@@ -21142,7 +21142,7 @@
       <c r="M352" t="s">
         <v>26</v>
       </c>
-      <c r="N352" s="2" t="s">
+      <c r="N352" t="s">
         <v>18</v>
       </c>
       <c r="O352" s="2" t="s">
@@ -21261,7 +21261,7 @@
         <v>23</v>
       </c>
       <c r="P354" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q354" t="s">
         <v>22</v>
@@ -21314,10 +21314,10 @@
         <v>18</v>
       </c>
       <c r="O355" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P355" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q355" t="s">
         <v>22</v>
@@ -21370,10 +21370,10 @@
         <v>18</v>
       </c>
       <c r="O356" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P356" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q356" t="s">
         <v>22</v>
@@ -21423,13 +21423,13 @@
         <v>26</v>
       </c>
       <c r="N357" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O357" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P357" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q357" t="s">
         <v>22</v>
@@ -21479,10 +21479,10 @@
         <v>26</v>
       </c>
       <c r="N358" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O358" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P358" s="2" t="s">
         <v>18</v>
@@ -21535,10 +21535,10 @@
         <v>26</v>
       </c>
       <c r="N359" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O359" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P359" s="2" t="s">
         <v>18</v>
@@ -21591,13 +21591,13 @@
         <v>22</v>
       </c>
       <c r="N360" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O360" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P360" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q360" t="s">
         <v>25</v>
@@ -21650,10 +21650,10 @@
         <v>18</v>
       </c>
       <c r="O361" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P361" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q361" t="s">
         <v>25</v>
@@ -21706,10 +21706,10 @@
         <v>18</v>
       </c>
       <c r="O362" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P362" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q362" t="s">
         <v>25</v>
@@ -21762,7 +21762,7 @@
         <v>18</v>
       </c>
       <c r="O363" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P363" s="2" t="s">
         <v>23</v>
@@ -21927,7 +21927,7 @@
         <v>22</v>
       </c>
       <c r="N366" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O366" s="2" t="s">
         <v>18</v>
@@ -21983,13 +21983,13 @@
         <v>22</v>
       </c>
       <c r="N367" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O367" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P367" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q367" t="s">
         <v>25</v>
@@ -22042,13 +22042,13 @@
         <v>22</v>
       </c>
       <c r="N368" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O368" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P368" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q368" t="s">
         <v>25</v>
@@ -22101,7 +22101,7 @@
         <v>22</v>
       </c>
       <c r="N369" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O369" s="2" t="s">
         <v>18</v>

--- a/song7.xlsx
+++ b/song7.xlsx
@@ -789,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V1180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A327" zoomScale="122" workbookViewId="0">
-      <selection activeCell="L340" sqref="L340"/>
+    <sheetView tabSelected="1" topLeftCell="A358" zoomScale="122" workbookViewId="0">
+      <selection activeCell="N160" sqref="N160:P369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10332,10 +10332,10 @@
         <v>22</v>
       </c>
       <c r="N162" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O162" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P162" s="2" t="s">
         <v>18</v>
@@ -10391,10 +10391,10 @@
         <v>22</v>
       </c>
       <c r="N163" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O163" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="O163" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="P163" t="s">
         <v>18</v>
@@ -10450,13 +10450,13 @@
         <v>22</v>
       </c>
       <c r="N164" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O164" t="s">
         <v>18</v>
       </c>
-      <c r="P164" t="s">
-        <v>18</v>
+      <c r="P164" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="Q164" t="s">
         <v>25</v>
@@ -10509,13 +10509,13 @@
         <v>22</v>
       </c>
       <c r="N165" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O165" t="s">
         <v>18</v>
       </c>
-      <c r="P165" t="s">
-        <v>18</v>
+      <c r="P165" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="Q165" t="s">
         <v>25</v>
@@ -10686,10 +10686,10 @@
         <v>22</v>
       </c>
       <c r="N168" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O168" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P168" s="2" t="s">
         <v>18</v>
@@ -10745,10 +10745,10 @@
         <v>22</v>
       </c>
       <c r="N169" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O169" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="O169" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="P169" t="s">
         <v>18</v>
@@ -10806,11 +10806,11 @@
       <c r="N170" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O170" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P170" t="s">
-        <v>18</v>
+      <c r="O170" t="s">
+        <v>18</v>
+      </c>
+      <c r="P170" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="Q170" t="s">
         <v>20</v>
@@ -10862,14 +10862,14 @@
       <c r="M171" t="s">
         <v>25</v>
       </c>
-      <c r="N171" t="s">
-        <v>18</v>
-      </c>
-      <c r="O171" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P171" t="s">
-        <v>18</v>
+      <c r="N171" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O171" t="s">
+        <v>18</v>
+      </c>
+      <c r="P171" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="Q171" t="s">
         <v>20</v>
@@ -10921,11 +10921,11 @@
       <c r="M172" t="s">
         <v>25</v>
       </c>
-      <c r="N172" t="s">
-        <v>18</v>
+      <c r="N172" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="O172" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P172" s="2" t="s">
         <v>18</v>
@@ -10981,10 +10981,10 @@
         <v>25</v>
       </c>
       <c r="N173" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O173" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P173" s="2" t="s">
         <v>18</v>
@@ -11104,7 +11104,7 @@
       <c r="O175" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P175" s="2" t="s">
+      <c r="P175" t="s">
         <v>18</v>
       </c>
       <c r="Q175" t="s">
@@ -11160,11 +11160,11 @@
       <c r="N176" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O176" s="2" t="s">
-        <v>23</v>
+      <c r="O176" t="s">
+        <v>18</v>
       </c>
       <c r="P176" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q176" t="s">
         <v>20</v>
@@ -11219,11 +11219,11 @@
       <c r="N177" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O177" s="2" t="s">
-        <v>23</v>
+      <c r="O177" t="s">
+        <v>18</v>
       </c>
       <c r="P177" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q177" t="s">
         <v>20</v>
@@ -11276,10 +11276,10 @@
         <v>25</v>
       </c>
       <c r="N178" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O178" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P178" s="2" t="s">
         <v>18</v>
@@ -11332,10 +11332,10 @@
         <v>25</v>
       </c>
       <c r="N179" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O179" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P179" s="2" t="s">
         <v>18</v>
@@ -11391,10 +11391,10 @@
         <v>18</v>
       </c>
       <c r="O180" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P180" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q180" t="s">
         <v>19</v>
@@ -11447,10 +11447,10 @@
         <v>18</v>
       </c>
       <c r="O181" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P181" s="2" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="P181" t="s">
+        <v>18</v>
       </c>
       <c r="Q181" t="s">
         <v>19</v>
@@ -11502,7 +11502,7 @@
       <c r="N182" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O182" s="2" t="s">
+      <c r="O182" t="s">
         <v>18</v>
       </c>
       <c r="P182" s="2" t="s">
@@ -11558,7 +11558,7 @@
       <c r="N183" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O183" s="2" t="s">
+      <c r="O183" t="s">
         <v>18</v>
       </c>
       <c r="P183" s="2" t="s">
@@ -11612,13 +11612,13 @@
         <v>20</v>
       </c>
       <c r="N184" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O184" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P184" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q184" t="s">
         <v>19</v>
@@ -11668,13 +11668,13 @@
         <v>20</v>
       </c>
       <c r="N185" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O185" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P185" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q185" t="s">
         <v>19</v>
@@ -11727,10 +11727,10 @@
         <v>18</v>
       </c>
       <c r="O186" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P186" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q186" t="s">
         <v>19</v>
@@ -11783,10 +11783,10 @@
         <v>18</v>
       </c>
       <c r="O187" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P187" s="2" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="P187" t="s">
+        <v>18</v>
       </c>
       <c r="Q187" t="s">
         <v>19</v>
@@ -11838,7 +11838,7 @@
       <c r="N188" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O188" s="2" t="s">
+      <c r="O188" t="s">
         <v>18</v>
       </c>
       <c r="P188" s="2" t="s">
@@ -11894,7 +11894,7 @@
       <c r="N189" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O189" s="2" t="s">
+      <c r="O189" t="s">
         <v>18</v>
       </c>
       <c r="P189" s="2" t="s">
@@ -12060,10 +12060,10 @@
         <v>19</v>
       </c>
       <c r="N192" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O192" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P192" s="2" t="s">
         <v>18</v>
@@ -12116,10 +12116,10 @@
         <v>19</v>
       </c>
       <c r="N193" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O193" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="O193" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="P193" t="s">
         <v>18</v>
@@ -12172,13 +12172,13 @@
         <v>19</v>
       </c>
       <c r="N194" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O194" t="s">
         <v>18</v>
       </c>
-      <c r="P194" t="s">
-        <v>18</v>
+      <c r="P194" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="Q194" t="s">
         <v>26</v>
@@ -12228,13 +12228,13 @@
         <v>19</v>
       </c>
       <c r="N195" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O195" t="s">
         <v>18</v>
       </c>
-      <c r="P195" t="s">
-        <v>18</v>
+      <c r="P195" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="Q195" t="s">
         <v>26</v>
@@ -12396,10 +12396,10 @@
         <v>19</v>
       </c>
       <c r="N198" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O198" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P198" s="2" t="s">
         <v>18</v>
@@ -12452,10 +12452,10 @@
         <v>19</v>
       </c>
       <c r="N199" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O199" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="O199" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="P199" t="s">
         <v>18</v>
@@ -12510,11 +12510,11 @@
       <c r="N200" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O200" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P200" t="s">
-        <v>18</v>
+      <c r="O200" t="s">
+        <v>18</v>
+      </c>
+      <c r="P200" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="Q200" t="s">
         <v>22</v>
@@ -12563,14 +12563,14 @@
       <c r="M201" t="s">
         <v>26</v>
       </c>
-      <c r="N201" t="s">
-        <v>18</v>
-      </c>
-      <c r="O201" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P201" t="s">
-        <v>18</v>
+      <c r="N201" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O201" t="s">
+        <v>18</v>
+      </c>
+      <c r="P201" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="Q201" t="s">
         <v>22</v>
@@ -12619,11 +12619,11 @@
       <c r="M202" t="s">
         <v>26</v>
       </c>
-      <c r="N202" t="s">
-        <v>18</v>
+      <c r="N202" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="O202" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P202" s="2" t="s">
         <v>18</v>
@@ -12676,10 +12676,10 @@
         <v>26</v>
       </c>
       <c r="N203" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O203" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P203" s="2" t="s">
         <v>18</v>
@@ -12793,7 +12793,7 @@
       <c r="O205" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P205" s="2" t="s">
+      <c r="P205" t="s">
         <v>18</v>
       </c>
       <c r="Q205" t="s">
@@ -12846,11 +12846,11 @@
       <c r="N206" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O206" s="2" t="s">
-        <v>23</v>
+      <c r="O206" t="s">
+        <v>18</v>
       </c>
       <c r="P206" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q206" t="s">
         <v>22</v>
@@ -12902,11 +12902,11 @@
       <c r="N207" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O207" s="2" t="s">
-        <v>23</v>
+      <c r="O207" t="s">
+        <v>18</v>
       </c>
       <c r="P207" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q207" t="s">
         <v>22</v>
@@ -12956,10 +12956,10 @@
         <v>26</v>
       </c>
       <c r="N208" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O208" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P208" s="2" t="s">
         <v>18</v>
@@ -13012,10 +13012,10 @@
         <v>26</v>
       </c>
       <c r="N209" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O209" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P209" s="2" t="s">
         <v>18</v>
@@ -13071,10 +13071,10 @@
         <v>18</v>
       </c>
       <c r="O210" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P210" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q210" t="s">
         <v>25</v>
@@ -13127,10 +13127,10 @@
         <v>18</v>
       </c>
       <c r="O211" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P211" s="2" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="P211" t="s">
+        <v>18</v>
       </c>
       <c r="Q211" t="s">
         <v>25</v>
@@ -13182,7 +13182,7 @@
       <c r="N212" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O212" s="2" t="s">
+      <c r="O212" t="s">
         <v>18</v>
       </c>
       <c r="P212" s="2" t="s">
@@ -13238,7 +13238,7 @@
       <c r="N213" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O213" s="2" t="s">
+      <c r="O213" t="s">
         <v>18</v>
       </c>
       <c r="P213" s="2" t="s">
@@ -13292,13 +13292,13 @@
         <v>22</v>
       </c>
       <c r="N214" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O214" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P214" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q214" t="s">
         <v>25</v>
@@ -13348,13 +13348,13 @@
         <v>22</v>
       </c>
       <c r="N215" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O215" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P215" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q215" t="s">
         <v>25</v>
@@ -13407,10 +13407,10 @@
         <v>18</v>
       </c>
       <c r="O216" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P216" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q216" t="s">
         <v>25</v>
@@ -13463,10 +13463,10 @@
         <v>18</v>
       </c>
       <c r="O217" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P217" s="2" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="P217" t="s">
+        <v>18</v>
       </c>
       <c r="Q217" t="s">
         <v>25</v>
@@ -13518,7 +13518,7 @@
       <c r="N218" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O218" s="2" t="s">
+      <c r="O218" t="s">
         <v>18</v>
       </c>
       <c r="P218" s="2" t="s">
@@ -13574,7 +13574,7 @@
       <c r="N219" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O219" s="2" t="s">
+      <c r="O219" t="s">
         <v>18</v>
       </c>
       <c r="P219" s="2" t="s">
@@ -13740,10 +13740,10 @@
         <v>25</v>
       </c>
       <c r="N222" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O222" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P222" s="2" t="s">
         <v>18</v>
@@ -13796,10 +13796,10 @@
         <v>25</v>
       </c>
       <c r="N223" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O223" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="O223" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="P223" t="s">
         <v>18</v>
@@ -13852,13 +13852,13 @@
         <v>25</v>
       </c>
       <c r="N224" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O224" t="s">
         <v>18</v>
       </c>
-      <c r="P224" t="s">
-        <v>18</v>
+      <c r="P224" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="Q224" t="s">
         <v>20</v>
@@ -13908,13 +13908,13 @@
         <v>25</v>
       </c>
       <c r="N225" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O225" t="s">
         <v>18</v>
       </c>
-      <c r="P225" t="s">
-        <v>18</v>
+      <c r="P225" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="Q225" t="s">
         <v>20</v>
@@ -14076,10 +14076,10 @@
         <v>25</v>
       </c>
       <c r="N228" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O228" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P228" s="2" t="s">
         <v>18</v>
@@ -14132,10 +14132,10 @@
         <v>25</v>
       </c>
       <c r="N229" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O229" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="O229" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="P229" t="s">
         <v>18</v>
@@ -14190,11 +14190,11 @@
       <c r="N230" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O230" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P230" t="s">
-        <v>18</v>
+      <c r="O230" t="s">
+        <v>18</v>
+      </c>
+      <c r="P230" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="Q230" t="s">
         <v>19</v>
@@ -14243,14 +14243,14 @@
       <c r="M231" t="s">
         <v>20</v>
       </c>
-      <c r="N231" t="s">
-        <v>18</v>
-      </c>
-      <c r="O231" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P231" t="s">
-        <v>18</v>
+      <c r="N231" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O231" t="s">
+        <v>18</v>
+      </c>
+      <c r="P231" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="Q231" t="s">
         <v>19</v>
@@ -14299,11 +14299,11 @@
       <c r="M232" t="s">
         <v>20</v>
       </c>
-      <c r="N232" t="s">
-        <v>18</v>
+      <c r="N232" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="O232" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P232" s="2" t="s">
         <v>18</v>
@@ -14356,10 +14356,10 @@
         <v>20</v>
       </c>
       <c r="N233" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O233" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P233" s="2" t="s">
         <v>18</v>
@@ -14473,7 +14473,7 @@
       <c r="O235" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P235" s="2" t="s">
+      <c r="P235" t="s">
         <v>18</v>
       </c>
       <c r="Q235" t="s">
@@ -14526,11 +14526,11 @@
       <c r="N236" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O236" s="2" t="s">
-        <v>23</v>
+      <c r="O236" t="s">
+        <v>18</v>
       </c>
       <c r="P236" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q236" t="s">
         <v>19</v>
@@ -14582,11 +14582,11 @@
       <c r="N237" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O237" s="2" t="s">
-        <v>23</v>
+      <c r="O237" t="s">
+        <v>18</v>
       </c>
       <c r="P237" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q237" t="s">
         <v>19</v>
@@ -14636,10 +14636,10 @@
         <v>20</v>
       </c>
       <c r="N238" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O238" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P238" s="2" t="s">
         <v>18</v>
@@ -14692,10 +14692,10 @@
         <v>20</v>
       </c>
       <c r="N239" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O239" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P239" s="2" t="s">
         <v>18</v>
@@ -14751,10 +14751,10 @@
         <v>18</v>
       </c>
       <c r="O240" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P240" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q240" t="s">
         <v>26</v>
@@ -14807,10 +14807,10 @@
         <v>18</v>
       </c>
       <c r="O241" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P241" s="2" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="P241" t="s">
+        <v>18</v>
       </c>
       <c r="Q241" t="s">
         <v>26</v>
@@ -14862,7 +14862,7 @@
       <c r="N242" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O242" s="2" t="s">
+      <c r="O242" t="s">
         <v>18</v>
       </c>
       <c r="P242" s="2" t="s">
@@ -14918,7 +14918,7 @@
       <c r="N243" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O243" s="2" t="s">
+      <c r="O243" t="s">
         <v>18</v>
       </c>
       <c r="P243" s="2" t="s">
@@ -14972,13 +14972,13 @@
         <v>19</v>
       </c>
       <c r="N244" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O244" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P244" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q244" t="s">
         <v>26</v>
@@ -15028,13 +15028,13 @@
         <v>19</v>
       </c>
       <c r="N245" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O245" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P245" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q245" t="s">
         <v>26</v>
@@ -15087,10 +15087,10 @@
         <v>18</v>
       </c>
       <c r="O246" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P246" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q246" t="s">
         <v>26</v>
@@ -15143,10 +15143,10 @@
         <v>18</v>
       </c>
       <c r="O247" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P247" s="2" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="P247" t="s">
+        <v>18</v>
       </c>
       <c r="Q247" t="s">
         <v>26</v>
@@ -15198,7 +15198,7 @@
       <c r="N248" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O248" s="2" t="s">
+      <c r="O248" t="s">
         <v>18</v>
       </c>
       <c r="P248" s="2" t="s">
@@ -15254,7 +15254,7 @@
       <c r="N249" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O249" s="2" t="s">
+      <c r="O249" t="s">
         <v>18</v>
       </c>
       <c r="P249" s="2" t="s">
@@ -15420,10 +15420,10 @@
         <v>26</v>
       </c>
       <c r="N252" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O252" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P252" s="2" t="s">
         <v>18</v>
@@ -15476,10 +15476,10 @@
         <v>26</v>
       </c>
       <c r="N253" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O253" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="O253" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="P253" t="s">
         <v>18</v>
@@ -15532,13 +15532,13 @@
         <v>26</v>
       </c>
       <c r="N254" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O254" t="s">
         <v>18</v>
       </c>
-      <c r="P254" t="s">
-        <v>18</v>
+      <c r="P254" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="Q254" t="s">
         <v>22</v>
@@ -15591,13 +15591,13 @@
         <v>26</v>
       </c>
       <c r="N255" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O255" t="s">
         <v>18</v>
       </c>
-      <c r="P255" t="s">
-        <v>18</v>
+      <c r="P255" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="Q255" t="s">
         <v>22</v>
@@ -15768,10 +15768,10 @@
         <v>26</v>
       </c>
       <c r="N258" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O258" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P258" s="2" t="s">
         <v>18</v>
@@ -15827,10 +15827,10 @@
         <v>26</v>
       </c>
       <c r="N259" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O259" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="O259" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="P259" t="s">
         <v>18</v>
@@ -15888,11 +15888,11 @@
       <c r="N260" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O260" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P260" t="s">
-        <v>18</v>
+      <c r="O260" t="s">
+        <v>18</v>
+      </c>
+      <c r="P260" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="Q260" t="s">
         <v>25</v>
@@ -15944,14 +15944,14 @@
       <c r="M261" t="s">
         <v>22</v>
       </c>
-      <c r="N261" t="s">
-        <v>18</v>
-      </c>
-      <c r="O261" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P261" t="s">
-        <v>18</v>
+      <c r="N261" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O261" t="s">
+        <v>18</v>
+      </c>
+      <c r="P261" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="Q261" t="s">
         <v>25</v>
@@ -16003,11 +16003,11 @@
       <c r="M262" t="s">
         <v>22</v>
       </c>
-      <c r="N262" t="s">
-        <v>18</v>
+      <c r="N262" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="O262" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P262" s="2" t="s">
         <v>18</v>
@@ -16063,10 +16063,10 @@
         <v>22</v>
       </c>
       <c r="N263" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O263" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P263" s="2" t="s">
         <v>18</v>
@@ -16186,7 +16186,7 @@
       <c r="O265" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P265" s="2" t="s">
+      <c r="P265" t="s">
         <v>18</v>
       </c>
       <c r="Q265" t="s">
@@ -16242,11 +16242,11 @@
       <c r="N266" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O266" s="2" t="s">
-        <v>23</v>
+      <c r="O266" t="s">
+        <v>18</v>
       </c>
       <c r="P266" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q266" t="s">
         <v>25</v>
@@ -16301,11 +16301,11 @@
       <c r="N267" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O267" s="2" t="s">
-        <v>23</v>
+      <c r="O267" t="s">
+        <v>18</v>
       </c>
       <c r="P267" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q267" t="s">
         <v>25</v>
@@ -16358,10 +16358,10 @@
         <v>22</v>
       </c>
       <c r="N268" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O268" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P268" s="2" t="s">
         <v>18</v>
@@ -16417,10 +16417,10 @@
         <v>22</v>
       </c>
       <c r="N269" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O269" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P269" s="2" t="s">
         <v>18</v>
@@ -16479,10 +16479,10 @@
         <v>18</v>
       </c>
       <c r="O270" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P270" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q270" t="s">
         <v>20</v>
@@ -16538,10 +16538,10 @@
         <v>18</v>
       </c>
       <c r="O271" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P271" s="2" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="P271" t="s">
+        <v>18</v>
       </c>
       <c r="Q271" t="s">
         <v>20</v>
@@ -16596,7 +16596,7 @@
       <c r="N272" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O272" s="2" t="s">
+      <c r="O272" t="s">
         <v>18</v>
       </c>
       <c r="P272" s="2" t="s">
@@ -16655,7 +16655,7 @@
       <c r="N273" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O273" s="2" t="s">
+      <c r="O273" t="s">
         <v>18</v>
       </c>
       <c r="P273" s="2" t="s">
@@ -16712,13 +16712,13 @@
         <v>25</v>
       </c>
       <c r="N274" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O274" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P274" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q274" t="s">
         <v>20</v>
@@ -16771,13 +16771,13 @@
         <v>25</v>
       </c>
       <c r="N275" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O275" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P275" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q275" t="s">
         <v>20</v>
@@ -16833,10 +16833,10 @@
         <v>18</v>
       </c>
       <c r="O276" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P276" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q276" t="s">
         <v>20</v>
@@ -16889,10 +16889,10 @@
         <v>18</v>
       </c>
       <c r="O277" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P277" s="2" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="P277" t="s">
+        <v>18</v>
       </c>
       <c r="Q277" t="s">
         <v>20</v>
@@ -16944,7 +16944,7 @@
       <c r="N278" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O278" s="2" t="s">
+      <c r="O278" t="s">
         <v>18</v>
       </c>
       <c r="P278" s="2" t="s">
@@ -17000,7 +17000,7 @@
       <c r="N279" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O279" s="2" t="s">
+      <c r="O279" t="s">
         <v>18</v>
       </c>
       <c r="P279" s="2" t="s">
@@ -17166,10 +17166,10 @@
         <v>20</v>
       </c>
       <c r="N282" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O282" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P282" s="2" t="s">
         <v>18</v>
@@ -17222,10 +17222,10 @@
         <v>20</v>
       </c>
       <c r="N283" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O283" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="O283" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="P283" t="s">
         <v>18</v>
@@ -17278,13 +17278,13 @@
         <v>20</v>
       </c>
       <c r="N284" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O284" t="s">
         <v>18</v>
       </c>
-      <c r="P284" t="s">
-        <v>18</v>
+      <c r="P284" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="Q284" t="s">
         <v>19</v>
@@ -17334,13 +17334,13 @@
         <v>20</v>
       </c>
       <c r="N285" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O285" t="s">
         <v>18</v>
       </c>
-      <c r="P285" t="s">
-        <v>18</v>
+      <c r="P285" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="Q285" t="s">
         <v>19</v>
@@ -17502,10 +17502,10 @@
         <v>20</v>
       </c>
       <c r="N288" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O288" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P288" s="2" t="s">
         <v>18</v>
@@ -17558,10 +17558,10 @@
         <v>20</v>
       </c>
       <c r="N289" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O289" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="O289" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="P289" t="s">
         <v>18</v>
@@ -17616,11 +17616,11 @@
       <c r="N290" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O290" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P290" t="s">
-        <v>18</v>
+      <c r="O290" t="s">
+        <v>18</v>
+      </c>
+      <c r="P290" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="Q290" t="s">
         <v>26</v>
@@ -17669,14 +17669,14 @@
       <c r="M291" t="s">
         <v>19</v>
       </c>
-      <c r="N291" t="s">
-        <v>18</v>
-      </c>
-      <c r="O291" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P291" t="s">
-        <v>18</v>
+      <c r="N291" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O291" t="s">
+        <v>18</v>
+      </c>
+      <c r="P291" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="Q291" t="s">
         <v>26</v>
@@ -17728,11 +17728,11 @@
       <c r="M292" t="s">
         <v>19</v>
       </c>
-      <c r="N292" t="s">
-        <v>18</v>
+      <c r="N292" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="O292" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P292" s="2" t="s">
         <v>18</v>
@@ -17788,10 +17788,10 @@
         <v>19</v>
       </c>
       <c r="N293" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O293" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P293" s="2" t="s">
         <v>18</v>
@@ -17911,7 +17911,7 @@
       <c r="O295" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P295" s="2" t="s">
+      <c r="P295" t="s">
         <v>18</v>
       </c>
       <c r="Q295" t="s">
@@ -17967,11 +17967,11 @@
       <c r="N296" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O296" s="2" t="s">
-        <v>23</v>
+      <c r="O296" t="s">
+        <v>18</v>
       </c>
       <c r="P296" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q296" t="s">
         <v>26</v>
@@ -18026,11 +18026,11 @@
       <c r="N297" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O297" s="2" t="s">
-        <v>23</v>
+      <c r="O297" t="s">
+        <v>18</v>
       </c>
       <c r="P297" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q297" t="s">
         <v>26</v>
@@ -18083,10 +18083,10 @@
         <v>19</v>
       </c>
       <c r="N298" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O298" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P298" s="2" t="s">
         <v>18</v>
@@ -18142,10 +18142,10 @@
         <v>19</v>
       </c>
       <c r="N299" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O299" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P299" s="2" t="s">
         <v>18</v>
@@ -18204,10 +18204,10 @@
         <v>18</v>
       </c>
       <c r="O300" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P300" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q300" t="s">
         <v>22</v>
@@ -18263,10 +18263,10 @@
         <v>18</v>
       </c>
       <c r="O301" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P301" s="2" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="P301" t="s">
+        <v>18</v>
       </c>
       <c r="Q301" t="s">
         <v>22</v>
@@ -18321,7 +18321,7 @@
       <c r="N302" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O302" s="2" t="s">
+      <c r="O302" t="s">
         <v>18</v>
       </c>
       <c r="P302" s="2" t="s">
@@ -18380,7 +18380,7 @@
       <c r="N303" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O303" s="2" t="s">
+      <c r="O303" t="s">
         <v>18</v>
       </c>
       <c r="P303" s="2" t="s">
@@ -18437,13 +18437,13 @@
         <v>26</v>
       </c>
       <c r="N304" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O304" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P304" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q304" t="s">
         <v>22</v>
@@ -18496,13 +18496,13 @@
         <v>26</v>
       </c>
       <c r="N305" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O305" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P305" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q305" t="s">
         <v>22</v>
@@ -18558,10 +18558,10 @@
         <v>18</v>
       </c>
       <c r="O306" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P306" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q306" t="s">
         <v>22</v>
@@ -18617,10 +18617,10 @@
         <v>18</v>
       </c>
       <c r="O307" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P307" s="2" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="P307" t="s">
+        <v>18</v>
       </c>
       <c r="Q307" t="s">
         <v>22</v>
@@ -18675,7 +18675,7 @@
       <c r="N308" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O308" s="2" t="s">
+      <c r="O308" t="s">
         <v>18</v>
       </c>
       <c r="P308" s="2" t="s">
@@ -18734,7 +18734,7 @@
       <c r="N309" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O309" s="2" t="s">
+      <c r="O309" t="s">
         <v>18</v>
       </c>
       <c r="P309" s="2" t="s">
@@ -18903,10 +18903,10 @@
         <v>22</v>
       </c>
       <c r="N312" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O312" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P312" s="2" t="s">
         <v>18</v>
@@ -18959,10 +18959,10 @@
         <v>22</v>
       </c>
       <c r="N313" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O313" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="O313" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="P313" t="s">
         <v>18</v>
@@ -19015,13 +19015,13 @@
         <v>22</v>
       </c>
       <c r="N314" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O314" t="s">
         <v>18</v>
       </c>
-      <c r="P314" t="s">
-        <v>18</v>
+      <c r="P314" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="Q314" t="s">
         <v>25</v>
@@ -19071,13 +19071,13 @@
         <v>22</v>
       </c>
       <c r="N315" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O315" t="s">
         <v>18</v>
       </c>
-      <c r="P315" t="s">
-        <v>18</v>
+      <c r="P315" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="Q315" t="s">
         <v>25</v>
@@ -19239,10 +19239,10 @@
         <v>22</v>
       </c>
       <c r="N318" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O318" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P318" s="2" t="s">
         <v>18</v>
@@ -19295,10 +19295,10 @@
         <v>22</v>
       </c>
       <c r="N319" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O319" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="O319" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="P319" t="s">
         <v>18</v>
@@ -19353,11 +19353,11 @@
       <c r="N320" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O320" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P320" t="s">
-        <v>18</v>
+      <c r="O320" t="s">
+        <v>18</v>
+      </c>
+      <c r="P320" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="Q320" t="s">
         <v>20</v>
@@ -19406,14 +19406,14 @@
       <c r="M321" t="s">
         <v>25</v>
       </c>
-      <c r="N321" t="s">
-        <v>18</v>
-      </c>
-      <c r="O321" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P321" t="s">
-        <v>18</v>
+      <c r="N321" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O321" t="s">
+        <v>18</v>
+      </c>
+      <c r="P321" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="Q321" t="s">
         <v>20</v>
@@ -19462,11 +19462,11 @@
       <c r="M322" t="s">
         <v>25</v>
       </c>
-      <c r="N322" t="s">
-        <v>18</v>
+      <c r="N322" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="O322" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P322" s="2" t="s">
         <v>18</v>
@@ -19519,10 +19519,10 @@
         <v>25</v>
       </c>
       <c r="N323" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O323" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P323" s="2" t="s">
         <v>18</v>
@@ -19636,7 +19636,7 @@
       <c r="O325" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P325" s="2" t="s">
+      <c r="P325" t="s">
         <v>18</v>
       </c>
       <c r="Q325" t="s">
@@ -19689,11 +19689,11 @@
       <c r="N326" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O326" s="2" t="s">
-        <v>23</v>
+      <c r="O326" t="s">
+        <v>18</v>
       </c>
       <c r="P326" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q326" t="s">
         <v>20</v>
@@ -19745,11 +19745,11 @@
       <c r="N327" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O327" s="2" t="s">
-        <v>23</v>
+      <c r="O327" t="s">
+        <v>18</v>
       </c>
       <c r="P327" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q327" t="s">
         <v>20</v>
@@ -19799,10 +19799,10 @@
         <v>25</v>
       </c>
       <c r="N328" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O328" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P328" s="2" t="s">
         <v>18</v>
@@ -19855,10 +19855,10 @@
         <v>25</v>
       </c>
       <c r="N329" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O329" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P329" s="2" t="s">
         <v>18</v>
@@ -19914,10 +19914,10 @@
         <v>18</v>
       </c>
       <c r="O330" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P330" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q330" t="s">
         <v>19</v>
@@ -19970,10 +19970,10 @@
         <v>18</v>
       </c>
       <c r="O331" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P331" s="2" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="P331" t="s">
+        <v>18</v>
       </c>
       <c r="Q331" t="s">
         <v>19</v>
@@ -20025,7 +20025,7 @@
       <c r="N332" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O332" s="2" t="s">
+      <c r="O332" t="s">
         <v>18</v>
       </c>
       <c r="P332" s="2" t="s">
@@ -20081,7 +20081,7 @@
       <c r="N333" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O333" s="2" t="s">
+      <c r="O333" t="s">
         <v>18</v>
       </c>
       <c r="P333" s="2" t="s">
@@ -20135,13 +20135,13 @@
         <v>20</v>
       </c>
       <c r="N334" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O334" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P334" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q334" t="s">
         <v>19</v>
@@ -20191,13 +20191,13 @@
         <v>20</v>
       </c>
       <c r="N335" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O335" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P335" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q335" t="s">
         <v>19</v>
@@ -20250,10 +20250,10 @@
         <v>18</v>
       </c>
       <c r="O336" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P336" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q336" t="s">
         <v>19</v>
@@ -20306,10 +20306,10 @@
         <v>18</v>
       </c>
       <c r="O337" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P337" s="2" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="P337" t="s">
+        <v>18</v>
       </c>
       <c r="Q337" t="s">
         <v>19</v>
@@ -20361,7 +20361,7 @@
       <c r="N338" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O338" s="2" t="s">
+      <c r="O338" t="s">
         <v>18</v>
       </c>
       <c r="P338" s="2" t="s">
@@ -20417,7 +20417,7 @@
       <c r="N339" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O339" s="2" t="s">
+      <c r="O339" t="s">
         <v>18</v>
       </c>
       <c r="P339" s="2" t="s">
@@ -20583,10 +20583,10 @@
         <v>19</v>
       </c>
       <c r="N342" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O342" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P342" s="2" t="s">
         <v>18</v>
@@ -20639,10 +20639,10 @@
         <v>19</v>
       </c>
       <c r="N343" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O343" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="O343" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="P343" t="s">
         <v>18</v>
@@ -20695,13 +20695,13 @@
         <v>19</v>
       </c>
       <c r="N344" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O344" t="s">
         <v>18</v>
       </c>
-      <c r="P344" t="s">
-        <v>18</v>
+      <c r="P344" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="Q344" t="s">
         <v>26</v>
@@ -20751,13 +20751,13 @@
         <v>19</v>
       </c>
       <c r="N345" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O345" t="s">
         <v>18</v>
       </c>
-      <c r="P345" t="s">
-        <v>18</v>
+      <c r="P345" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="Q345" t="s">
         <v>26</v>
@@ -20919,10 +20919,10 @@
         <v>19</v>
       </c>
       <c r="N348" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O348" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P348" s="2" t="s">
         <v>18</v>
@@ -20975,10 +20975,10 @@
         <v>19</v>
       </c>
       <c r="N349" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O349" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="O349" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="P349" t="s">
         <v>18</v>
@@ -21033,11 +21033,11 @@
       <c r="N350" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O350" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P350" t="s">
-        <v>18</v>
+      <c r="O350" t="s">
+        <v>18</v>
+      </c>
+      <c r="P350" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="Q350" t="s">
         <v>22</v>
@@ -21086,14 +21086,14 @@
       <c r="M351" t="s">
         <v>26</v>
       </c>
-      <c r="N351" t="s">
-        <v>18</v>
-      </c>
-      <c r="O351" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P351" t="s">
-        <v>18</v>
+      <c r="N351" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O351" t="s">
+        <v>18</v>
+      </c>
+      <c r="P351" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="Q351" t="s">
         <v>22</v>
@@ -21142,11 +21142,11 @@
       <c r="M352" t="s">
         <v>26</v>
       </c>
-      <c r="N352" t="s">
-        <v>18</v>
+      <c r="N352" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="O352" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P352" s="2" t="s">
         <v>18</v>
@@ -21199,10 +21199,10 @@
         <v>26</v>
       </c>
       <c r="N353" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O353" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P353" s="2" t="s">
         <v>18</v>
@@ -21316,7 +21316,7 @@
       <c r="O355" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P355" s="2" t="s">
+      <c r="P355" t="s">
         <v>18</v>
       </c>
       <c r="Q355" t="s">
@@ -21369,11 +21369,11 @@
       <c r="N356" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O356" s="2" t="s">
-        <v>23</v>
+      <c r="O356" t="s">
+        <v>18</v>
       </c>
       <c r="P356" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q356" t="s">
         <v>22</v>
@@ -21425,11 +21425,11 @@
       <c r="N357" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O357" s="2" t="s">
-        <v>23</v>
+      <c r="O357" t="s">
+        <v>18</v>
       </c>
       <c r="P357" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q357" t="s">
         <v>22</v>
@@ -21479,10 +21479,10 @@
         <v>26</v>
       </c>
       <c r="N358" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O358" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P358" s="2" t="s">
         <v>18</v>
@@ -21535,10 +21535,10 @@
         <v>26</v>
       </c>
       <c r="N359" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O359" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P359" s="2" t="s">
         <v>18</v>
@@ -21594,10 +21594,10 @@
         <v>18</v>
       </c>
       <c r="O360" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P360" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q360" t="s">
         <v>25</v>
@@ -21650,10 +21650,10 @@
         <v>18</v>
       </c>
       <c r="O361" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P361" s="2" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="P361" t="s">
+        <v>18</v>
       </c>
       <c r="Q361" t="s">
         <v>25</v>
@@ -21705,7 +21705,7 @@
       <c r="N362" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O362" s="2" t="s">
+      <c r="O362" t="s">
         <v>18</v>
       </c>
       <c r="P362" s="2" t="s">
@@ -21761,7 +21761,7 @@
       <c r="N363" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O363" s="2" t="s">
+      <c r="O363" t="s">
         <v>18</v>
       </c>
       <c r="P363" s="2" t="s">
@@ -21815,13 +21815,13 @@
         <v>22</v>
       </c>
       <c r="N364" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O364" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P364" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q364" t="s">
         <v>25</v>
@@ -21871,13 +21871,13 @@
         <v>22</v>
       </c>
       <c r="N365" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O365" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P365" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q365" t="s">
         <v>25</v>
@@ -21930,10 +21930,10 @@
         <v>18</v>
       </c>
       <c r="O366" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P366" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q366" t="s">
         <v>25</v>
@@ -21986,10 +21986,10 @@
         <v>18</v>
       </c>
       <c r="O367" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P367" s="2" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="P367" t="s">
+        <v>18</v>
       </c>
       <c r="Q367" t="s">
         <v>25</v>
@@ -22044,7 +22044,7 @@
       <c r="N368" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O368" s="2" t="s">
+      <c r="O368" t="s">
         <v>18</v>
       </c>
       <c r="P368" s="2" t="s">
@@ -22103,7 +22103,7 @@
       <c r="N369" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O369" s="2" t="s">
+      <c r="O369" t="s">
         <v>18</v>
       </c>
       <c r="P369" s="2" t="s">
